--- a/MBA/Essay and Interview/Reminders.xlsx
+++ b/MBA/Essay and Interview/Reminders.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8d52b12690a8ac7/桌面/MBA/Essay and Interview/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\OAFILE06\okwlee$\Desktop\MBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="11_F25DC773A252ABDACC104826D99C72785ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA57BCB7-C13C-4D3C-895A-FE487F91717B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>Points</t>
   </si>
@@ -243,11 +242,97 @@
   <si>
     <t>Essay why why why, class contribution, career goals, community contribution</t>
   </si>
+  <si>
+    <t xml:space="preserve">Video Essay (No modification, one take)
+- English ability
+- 随機應變
+- Communication skills
+-&gt; true self, speak things right in your mind
+</t>
+  </si>
+  <si>
+    <t>Diff types of video essays
+1. Real time, no info on questions
+2. 2-4 weeks preparation
+4. optional: visual aids to present yourself</t>
+  </si>
+  <si>
+    <t>behavioral questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video in
+XXX do not write long notes
+- practice on jot key points and speak out of them
+-need to know and understand clearly about yourself </t>
+  </si>
+  <si>
+    <t>正面 樂觀: Show, body language, don't tell</t>
+  </si>
+  <si>
+    <t>interviews, social club in school</t>
+  </si>
+  <si>
+    <t>talk to more alumni, to your homeworks</t>
+  </si>
+  <si>
+    <t>DNC/RNC speech, commencement speeech</t>
+  </si>
+  <si>
+    <t>Think of those your think that's not that important</t>
+  </si>
+  <si>
+    <t>Try to elaborate it in English with smooth logic</t>
+  </si>
+  <si>
+    <t>FAQ:
+1. Walk me through your resume -&gt; XXX 流水式作業
+2. Who are you
+3. Why MBA + Why School</t>
+  </si>
+  <si>
+    <t>Key: impact you can bring to the industry, and future impact</t>
+  </si>
+  <si>
+    <t>Leadership, management skills:
+1. Coaching
+2. Mentorship
+3. Influence / convince team for your decision</t>
+  </si>
+  <si>
+    <t>CV:
+讓履歷看起來不只專業上厲害，同時在跨部門溝通上也有成績
+記得你的action verb盡量包山包海
+-&gt; 你和行銷部門合作的案例、你和營運部門配合的專案
+cross department,
+MBA -&gt; not finding a super good expertise, but a leader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-Level
+wants people to carry out those responsibilities
+every business relationship is an investment of their limited time and attention,
+which by necessity must deliver the net return
+</t>
+  </si>
+  <si>
+    <t>凝聚大家 正視問題
+讓大家各司其職
+-&gt; people MBA search for</t>
+  </si>
+  <si>
+    <t>Captain american have no super power</t>
+  </si>
+  <si>
+    <t>Example, 不斷請教同事, 及適度展現自己的專業
+-&gt; maturity and leadership, humble to ask for advice, empowerment</t>
+  </si>
+  <si>
+    <t>integrity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -257,7 +342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +367,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -295,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -312,6 +403,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,20 +686,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -620,7 +715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -628,7 +723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -636,7 +731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -644,7 +739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -661,7 +756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -669,7 +764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -680,7 +775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -688,7 +783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -696,7 +791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -704,7 +799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -712,7 +807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -720,7 +815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -728,7 +823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -736,7 +831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -744,7 +839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -752,7 +847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -760,7 +855,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -768,7 +863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -776,7 +871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -784,7 +879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -792,7 +887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -800,7 +895,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -808,7 +903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -816,7 +911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -824,7 +919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -832,7 +927,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -840,7 +935,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -848,7 +943,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -856,7 +951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -864,7 +959,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -872,7 +967,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -880,7 +975,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -891,7 +986,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -899,7 +994,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -907,7 +1002,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -917,7 +1012,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -931,7 +1026,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -939,7 +1034,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -947,7 +1042,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -961,7 +1056,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -972,7 +1067,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -980,7 +1075,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -997,9 +1092,106 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
